--- a/characters_tables/excel files/Focuses.xlsx
+++ b/characters_tables/excel files/Focuses.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZiCold\OneDrive\Numenera\CharacterGeneration 2.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZiCold\YandexDisk\TRPGs - Numenera\zicold.github.io\characters_tables\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="11_B87096C364B30CB0234B44ACE644BF834E3F206A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58FEFB1B-21BD-4D96-8DF0-783F442D5B8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31DF43C-6EA4-4109-83C1-02CAC17D9E16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Focuses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -74,11 +64,6 @@
     <t>Absorbs Energy</t>
   </si>
   <si>
-    <t>Every movement is an expression of energy. You can harness this kinetic energy and transform it into other kinds of energy. At first, once you absorb energy, you must use it before you can absorb any more. You can use the absorbed energy as a weapon, or you can infuse an object with dangerous energy that is released upon touch. Eventually, you will be able to use the energy for nonviolent purposes, such as healing or invigorating creatures.
-_x000D_
-Glaives often gain the biggest benefit from being energy absorbers, as they are the ones most often being struck in combat, and many of the initial uses of absorbed energy are for combat. However, Wrights can potentially use some of that energy to improve their crafting abilities.</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. For reasons unknown to you, this character is completely immune to the energy you release, whether you use it for help or harm._x000D_
 _x000D_
 2. Pick one other PC. You knew of this character years ago, but you don’t think they knew you._x000D_
@@ -129,12 +114,6 @@
 2. Pick one other PC. You recently discovered that they always seem to be able to track you when you Slip Into Shadow.
 3. Pick one other PC. You saved them from certain death by taking a lucky gamble. It could’ve gone either way, but in the end, they lived. If you’d lost, they would’ve certainly died.
 4. Pick one other PC. They rescued you from an awful predicament during one of the few times your luck failed you. You’re a bit embarrassed that they know you have limits.</t>
-  </si>
-  <si>
-    <t>Additional Equipment: Deck of cards and a “lucky” oddity of the GM’s choice._x000D_
-_x000D_
-Weird Ability: You can choose to learn Danger Sense instead of one of the abilities granted by your type._x000D_
-- Danger Sense (1 Speed point) - Your initiative tasks are eased. You pay the cost each time the ability is used. Enabler.</t>
   </si>
   <si>
     <t>Minor Effect Suggestions: Your foe is surprised by or has a bad reaction to you for one round, during which time all its tasks are hindered.
@@ -315,11 +294,6 @@
     <t>Bears A Halo Of Fire</t>
   </si>
   <si>
-    <t>You can create a sheath of flames around your body. You leave scorch marks wherever you go, and you can’t handle combustible objects without first dousing your inherent flames. Your special abilities (such as Nano esoteries) are tainted with flame. Fiery visuals accompany your powers, and in some cases, your predilection for flame actually reshapes your abilities to take on a fiery nature where none existed before.
-You probably wear red and yellow, or perhaps black.
-Although most of those who take up this mantle are Nanos, flame-wielding Glaives and Jacks are fearsome indeed.</t>
-  </si>
-  <si>
     <t>Connection: Choose one of the following.
 1. Pick one other PC. Through a quirk of fate, your fire cannot harm that character.
 2. Pick one other PC. You burned this character by accident, and they still have a scar.
@@ -408,12 +382,6 @@
     <t>Breaks Down Walls</t>
   </si>
   <si>
-    <t>Through some modification of your body— mutation, mechanical enhancement, nanoreinforcement, or something else—you have the ability to smash through walls, destroy weapons, shatter shackles, break devices, and otherwise annihilate objects that would be difficult or even impossible for others to demolish. You’re a breaker. You do not flinch; you punch right through that wall, smash that machine, and fold the enemy’s metallic sword in half in an impressive and intimidating display. Depending on the method that gives you this ability, your act might be accompanied by flashes of energy, sound, or acidic odors. Once you display your impressive skills as a destroyer, your enemies sometimes surrender rather than face an apparent force of nature like yourself.
-You likely wear armor, but probably not the heaviest armor you can because you don’t want anything to slow you down too much.
-A character who Breaks Down Walls who successfully destroys an object or portion of a structure in a community that provides protection or some other important surface may also inflict 1 point of damage to the ranked community’s infrastructure.
-Breakers are often Glaives or Delves.</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. You accidentally struck this character once when you tried to break through a wall. It ruined your attempt and gave the character a nasty bruise that they claim still aches months later.
 2. Pick one other PC. You’re certain this character appreciates your abilities and is as impressed as you are with the sound of walls being smashed. This may or may not actually be the case.
 3. Pick one other PC. You and this character were childhood friends.
@@ -452,11 +420,6 @@
   </si>
   <si>
     <t>Builds Tomorrow</t>
-  </si>
-  <si>
-    <t>One of your favorite pastimes involves imagining what the skylines of the previous worlds might have looked like. Their inspiring heights, strange shapes, colors that human eyes can’t see, connections between structures that allowed the unknowable peoples of those bygone eras to step from one to the next... Well, you don’t know for certain what it must have been like, but you gain just as much pleasure imagining the future you will build, using the seeds of ancient knowledge as your guide for tomorrow.
-Are you a Wright, or are you some other type that has a keen interest in crafting? Although anyone can try their hand at crafting, someone who Builds Tomorrow has an advantage.
-Whatever else you wear, you likely have a belt strung with various spare parts, tools, and iotum, if you have any on hand.</t>
   </si>
   <si>
     <t>1. Pick one other PC. This character seems able to use all the objects and structures you craft with ease, even when you hide how to access certain functions.
@@ -550,12 +513,6 @@
     <t>Controls Beasts</t>
   </si>
   <si>
-    <t xml:space="preserve">To say that you have a way with animals and nonhuman creatures doesn’t begin to cover it. Your mastery and communication with beasts is positively uncanny. They come to you fearlessly, and it’s not uncommon for birds to alight on your shoulder or for small animals to climb up your arms or legs.
-You probably wear tough clothing and have a disheveled or grizzled appearance that suggests a rugged, outdoor life. Perhaps you even smell like an animal.
-Any type of character is likely to have this focus.
-</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. That character seems to disturb your creatures in a way that you can’t explain. You know that you must keep your animals away from them if possible, or you might lose control.
 2. Pick one other PC. The creature that you’re bonded with seems to have a special bond with this other person as well. You must decide whether it brings up feelings of jealousy or camaraderie within you and whether to thwart the connection or help it blossom.
 3. Pick one other PC. Recently, they accidentally (or perhaps intentionally) put your beast companion in a position of danger. Your companion is now nervous around them, and you are struggling with your own emotional response to the incident.
@@ -614,12 +571,6 @@
 4. Pick one other PC. They are skeptical of your ability to control gravity and think it’s just one big illusion. They might even attempt to discredit you or discover the “secret” behind your so-called skills.</t>
   </si>
   <si>
-    <t>Additional Equipment: You have a pen-sized oddity that tells the weight of whatever you point it at (within short range). The weight is displayed on a small glass plate in runes that only you can decipher._x000D_
-_x000D_
-Gravity Ability: You can choose to learn Weighty instead of one of the abilities granted by your type._x000D_
-- Weighty (1 Intellect point) - You briefly increase the weight of a target within short range enough to stop them in their tracks, preventing the target from moving and hindering any attempted tasks on their next turn. Action.</t>
-  </si>
-  <si>
     <t>Minor Effect Suggestions: The duration of the effect is doubled.
 Major Effect Suggestions: An important item on the target’s person is destroyed.</t>
   </si>
@@ -874,15 +825,6 @@
     <t>Emerged From The Obelisk</t>
   </si>
   <si>
-    <t xml:space="preserve">There is a gap in your memory lasting well over a year. One moment, you were marveling at the appearance of a floating obelisk. The next, you were waking up in a shallow crater, being helped up by a traveler. They witnessed you emerging from the side of that same obelisk, then falling and smiting the ground. Instead of dying, you made a crater, because your body was somehow changed and had become crystalline.
-You’ve tried to return to the obelisk in an attempt to determine what happened to you, but failed. Eventually, you hope to return. Until then, you explore, hoping to learn more about the numenera in general and master more of your own crystalline nature in particular.
-Any character type can have emerged from an obelisk, though the crystalline body they enjoy is most likely to be appreciated by Glaives and Delves.
-Weird creatures are something that explorers might expect to see on a regular basis, and someone who has emerged from an obelisk qualifies. However, residents in small communities and others who do not travel often will likely be highly suspicious and perhaps even afraid of such a character, at least initially.
-NONHUMANOID CRYSTALLINE FORM
-If your character who Emerges From the Obelisk is significantly different from a regular human shape—such as if you choose to be a levitating crystal shard—you’ll have to work with your GM to come up with an alternative method for manipulating objects like a regular human could, whether that’s short-range telekinesis or crystalline tendrils.
-</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. When your appearance raises concerns among other people who don’t know you, this character seems interested in giving you support and knowledge to help you fit in.
 2. Pick one other PC. They saw you emerge from the obelisk and came to your aid.
 3. Pick one other PC. They saw you emerge from the obelisk but thought you were a numenera device to be salvaged, which is how you got off on the wrong foot. It’s up to you whether you still hold a grudge.
@@ -923,11 +865,6 @@
     <t>Employs Magnetism</t>
   </si>
   <si>
-    <t>Electromagnetism is a fundamental force in the universe, and it is yours to command. You are a master of metal.
-You probably wear a lot of metal, perhaps as part of your clothing or armor, as part of your accessories (such as jewelry or piercings), embedded into your body surgically, or in some combination of these options.
-No one type of character is more likely than any other to employ magnetism, although Glaives who wield weapons and wear armor will find it an interesting complement to their powers.</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. Whenever you use your powers, the metallic items on that character’s body shudder, rattle, clink, and shake if they are within short range.
 2. Pick one other PC. You worked together in the past, and the job ended badly.
 3. Pick two other PCs. While practicing your Diamagnetism ability, you once accidentally sent them careening into each other. You’ve never been able to repeat it. Whether you tell them that you’ve been trying to replicate the strange effect is up to you.
@@ -959,11 +896,6 @@
     <t>Entertains</t>
   </si>
   <si>
-    <t>You are an entertainer - a singer, dancer, poet, storyteller, or something similar. You perform for the benefit of others. Naturally charismatic and talented, you have also studied to master your art. You know all the old poems, songs, jokes, and stories, and you’re skilled at creating new ones, too.
-You probably wear flamboyant or at least fashionable clothes and use cosmetics, tattoos, or hair stylings for dramatic effect.
-The role of the entertainer fits the Jack best, though Glaives and Nanos sometimes entertain as well.</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. This character is your worst critic. Your abilities to help or inspire others don’t function for them.
 2. Pick one other PC. They seem to really enjoy your attempts to entertain, and this brings out the performer in you. It’s up to that character whether their appreciation is real or they’re just being polite.
 3. Pick one other PC. They are so inspired and put at ease by your stories or other forms of entertainment that when you use Levity, they gain +2 to their recovery rolls (instead of+1).
@@ -1173,11 +1105,6 @@
     <t>Fights With Panache</t>
   </si>
   <si>
-    <t>You know that style is at least as important as substance. Defeating foes is secondary to looking good while doing it. Some might call you a swashbuckler or daredevil. You leap through the air, make a flourish with your weapon, and attack, usually with a clever, biting show of wit. Your enemies hate you, but your allies adore you. Just watching you fight is entertaining.
-You very likely wear no armor, instead preferring stylish clothing—perhaps even a hat with a feather.
-Jacks and Glaives make the best swashbucklers, and they are the most common types of characters to fight with panache.</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. You’re always trying to impress this character with your skill, wit, appearance, or bravado. Perhaps they are a rival, perhaps you need their respect, or perhaps you’re romantically interested in them.
 2. Pick one other PC. This character seems to anticipate your next move almost before you even begin it. When they collaborate with you on the same task or fight the same foe, you gain an asset on the task.
 3. Pick one other PC. You fear that the character is jealous of your abilities and worry that it might lead to problems.
@@ -1303,12 +1230,6 @@
   </si>
   <si>
     <t>Fuses Mind And Machine</t>
-  </si>
-  <si>
-    <t>You believe that the finest machine ever created is the human brain, and experience and training have taught you that any machine can be improved. Through the use of implants and mechanical enhancements, your brain processes input faster, stores more information, and eventually can tap right into the datasphere. Mentally, you function on an entirely different level than your fellows.
-Did you make these improvements yourself? Did someone else? Was it with your blessing
-or against your will? Regardless, you are now more than just a person. You are both living creature and machine. But unlike someone who Augments Flesh With Grafts, all of your refinements and upgrades are on the inside. You don’t need mech eyes or metal arms to be enhanced. It’s all about what’s inside your skull.
-Nanos are most often those who fuse their mind with machines, but Arkai and Wrights are almost as likely to do so.</t>
   </si>
   <si>
     <t>1. Pick one other PC. This character knows a few things that can help when your implants and enhancements malfunction.
@@ -1360,13 +1281,6 @@
     <t>Howls At The Moon</t>
   </si>
   <si>
-    <t>Sometimes the numenera is a double-edged sword. You are cursed and blessed to be able to transform into a powerful creature, drawing additional mass from a transdimensional source. You and the GM should work out the exact nature of the creature, including its appearance, but it’s a wild beast of rage and blood—at least until you learn to control it. Creatures like you are often called “lycanthropes.”
-Although the people of the Ninth World look upon a creature that transforms into another creature as mystical lycanthropy, it instead almost certainly involves accessing other dimensions of reality.
-A character either draws mass from an extradimensional space (perhaps somehow warping higherdimensional mass into our lower dimensions) or switches places with a larger, more savage ultraterrestrial creature for a time. In this latter case, the character and the creature have a bond that allows them to share general intentions. The character, while shunted to another dimension, likely remains in stasis, unaware of anything until returning to the normal world.
-Style and appearance are probably low on your list of concerns. Your clothes might be ragged because your transformation is hard on them (or they’re cheap because you know they’ll be destroyed the next time you transform).
-Anyone can be a lycanthrope. A Glaive likely benefits the most from the transformation.</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. That character is able to soothe you when you’re in beast form. You’ll never attack them while transformed, and if they spend three consecutive turns using their action to calm you down, you can revert to your normal form without having to make a roll.
 2. Pick one other PC. You believe that this character intends to convince you to join an entertainment venue (or capture you for the same). They choose whether or not this is true.
 3. Pick two other PCs. They know that it’s beneficial for you to kill and eat a creature while you’re in beast form, and they often work together to make sure that happens.
@@ -1540,12 +1454,6 @@
     <t>Leads</t>
   </si>
   <si>
-    <t>Using charisma, natural leadership, and perhaps some training, you command the actions of others, who follow you willingly.
-You are a commander, a captain, a leader, or a general. Your skills allow you to make people do what you want, but you also have the wisdom to know what actions would be best for your followers and allies.
-Since you need the respect of others, you probably dress and carry yourself in such a way that inspires, endears, or intimidates. You have a voice suited to barking orders that can be heard even on a noisy battlefield.
-Arkai are already leaders, so only a few will choose to further enhance their expertise. Glaives make excellent military leaders, but a Jack could easily lead a group of explorers or a den of thieves. A Nano might be the head of a group of “mages” or scholars, or they might have a gang of bodyguards as followers.</t>
-  </si>
-  <si>
     <t>1. Pick one other PC. This character was once a follower of yours, but you have since grown to think of them as a peer.
 2. Pick one other PC. Independent and stubborn, they are not affected by your abilities.
 3. Pick one other PC. They introduce you to the follower you gain at tier 2.
@@ -1681,11 +1589,6 @@
   </si>
   <si>
     <t>Masters Defense</t>
-  </si>
-  <si>
-    <t>Protecting yourself is obviously important in dangerous situations, and you are particularly good at it. Cautious and prudent, you learn techniques to defend against all kinds of attacks, both physical and mental. The winner is often the last person standing, and you’ve done all you can to ensure that person will be you.
-You carry a shield and probably wear the best armor you can find.
-Glaives make excellent defensive masters, but Jacks and Nanos also find at least some of these skills of great value.</t>
   </si>
   <si>
     <t>1. Pick one other PC. This character protected you from harm recently, and you feel indebted to them for saving your life.
@@ -2754,12 +2657,80 @@
 _x000D_
 All-Out Con (7 Intellect points): You put everything into it. You add three free levels of Effort to the next task you attempt. You can’t use this ability again until after you’ve taken a ten-hour recovery action. Action.</t>
   </si>
+  <si>
+    <t>Additional Equipment: You have a pen-sized oddity that tells the weight of whatever you point it at (within short range). The weight is displayed on a small glass plate in runes that only you can decipher.
+Gravity Ability: You can choose to learn Weighty instead of one of the abilities granted by your type. Weighty (1 Intellect point): You briefly increase the weight of a target within short range enough to stop them in their tracks, preventing the target from moving and hindering any attempted tasks on their next turn. Action.</t>
+  </si>
+  <si>
+    <t>Additional Equipment: Deck of cards and a “lucky” oddity of the GM’s choice.
+Weird Ability: You can choose to learn Danger Sense instead of one of the abilities granted by your type. Danger Sense (1 Speed point): Your initiative tasks are eased. You pay the cost each time the ability is used. Enabler.</t>
+  </si>
+  <si>
+    <t>Every movement is an expression of energy. You can harness this kinetic energy and transform it into other kinds of energy. At first, once you absorb energy, you must use it before you can absorb any more. You can use the absorbed energy as a weapon, or you can infuse an object with dangerous energy that is released upon touch. Eventually, you will be able to use the energy for nonviolent purposes, such as healing or invigorating creatures.
+Glaives often gain the biggest benefit from being energy absorbers, as they are the ones most often being struck in combat, and many of the initial uses of absorbed energy are for combat. However, Wrights can potentially use some of that energy to improve their crafting abilities.</t>
+  </si>
+  <si>
+    <t>There is a gap in your memory lasting well over a year. One moment, you were marveling at the appearance of a floating obelisk. The next, you were waking up in a shallow crater, being helped up by a traveler. They witnessed you emerging from the side of that same obelisk, then falling and smiting the ground. Instead of dying, you made a crater, because your body was somehow changed and had become crystalline.
+You’ve tried to return to the obelisk in an attempt to determine what happened to you, but failed. Eventually, you hope to return. Until then, you explore, hoping to learn more about the numenera in general and master more of your own crystalline nature in particular.
+Any character type can have emerged from an obelisk, though the crystalline body they enjoy is most likely to be appreciated by Glaives and Delves.
+Weird creatures are something that explorers might expect to see on a regular basis, and someone who has emerged from an obelisk qualifies. However, residents in small communities and others who do not travel often will likely be highly suspicious and perhaps even afraid of such a character, at least initially.
+Nonhumanoid Crystalline Form: If your character who Emerges From the Obelisk is significantly different from a regular human shape—such as if you choose to be a levitating crystal shard—you’ll have to work with your GM to come up with an alternative method for manipulating objects like a regular human could, whether that’s short-range telekinesis or crystalline tendrils.</t>
+  </si>
+  <si>
+    <t>You can create a sheath of flames around your body. You leave scorch marks wherever you go, and you can’t handle combustible objects without first dousing your inherent flames. Your special abilities (such as Nano esoteries) are tainted with flame. Fiery visuals accompany your powers, and in some cases, your predilection for flame actually reshapes your abilities to take on a fiery nature where none existed before. You probably wear red and yellow, or perhaps black.
+Although most of those who take up this mantle are Nanos, flame-wielding Glaives and Jacks are fearsome indeed.</t>
+  </si>
+  <si>
+    <t>Through some modification of your body— mutation, mechanical enhancement, nanoreinforcement, or something else—you have the ability to smash through walls, destroy weapons, shatter shackles, break devices, and otherwise annihilate objects that would be difficult or even impossible for others to demolish. You’re a breaker. You do not flinch; you punch right through that wall, smash that machine, and fold the enemy’s metallic sword in half in an impressive and intimidating display. Depending on the method that gives you this ability, your act might be accompanied by flashes of energy, sound, or acidic odors. Once you display your impressive skills as a destroyer, your enemies sometimes surrender rather than face an apparent force of nature like yourself. You likely wear armor, but probably not the heaviest armor you can because you don’t want anything to slow you down too much.
+A character who Breaks Down Walls who successfully destroys an object or portion of a structure in a community that provides protection or some other important surface may also inflict 1 point of damage to the ranked community’s infrastructure.
+Breakers are often Glaives or Delves.</t>
+  </si>
+  <si>
+    <t>One of your favorite pastimes involves imagining what the skylines of the previous worlds might have looked like. Their inspiring heights, strange shapes, colors that human eyes can’t see, connections between structures that allowed the unknowable peoples of those bygone eras to step from one to the next... Well, you don’t know for certain what it must have been like, but you gain just as much pleasure imagining the future you will build, using the seeds of ancient knowledge as your guide for tomorrow. Are you a Wright, or are you some other type that has a keen interest in crafting? Although anyone can try their hand at crafting, someone who Builds Tomorrow has an advantage.
+Whatever else you wear, you likely have a belt strung with various spare parts, tools, and iotum, if you have any on hand.</t>
+  </si>
+  <si>
+    <t>To say that you have a way with animals and nonhuman creatures doesn’t begin to cover it. Your mastery and communication with beasts is positively uncanny. They come to you fearlessly, and it’s not uncommon for birds to alight on your shoulder or for small animals to climb up your arms or legs.
+You probably wear tough clothing and have a disheveled or grizzled appearance that suggests a rugged, outdoor life. Perhaps you even smell like an animal.
+Any type of character is likely to have this focus.</t>
+  </si>
+  <si>
+    <t>Electromagnetism is a fundamental force in the universe, and it is yours to command. You are a master of metal. You probably wear a lot of metal, perhaps as part of your clothing or armor, as part of your accessories (such as jewelry or piercings), embedded into your body surgically, or in some combination of these options.
+No one type of character is more likely than any other to employ magnetism, although Glaives who wield weapons and wear armor will find it an interesting complement to their powers.</t>
+  </si>
+  <si>
+    <t>You are an entertainer - a singer, dancer, poet, storyteller, or something similar. You perform for the benefit of others. Naturally charismatic and talented, you have also studied to master your art. You know all the old poems, songs, jokes, and stories, and you’re skilled at creating new ones, too. You probably wear flamboyant or at least fashionable clothes and use cosmetics, tattoos, or hair stylings for dramatic effect.
+The role of the entertainer fits the Jack best, though Glaives and Nanos sometimes entertain as well.</t>
+  </si>
+  <si>
+    <t>You know that style is at least as important as substance. Defeating foes is secondary to looking good while doing it. Some might call you a swashbuckler or daredevil. You leap through the air, make a flourish with your weapon, and attack, usually with a clever, biting show of wit. Your enemies hate you, but your allies adore you. Just watching you fight is entertaining. You very likely wear no armor, instead preferring stylish clothing—perhaps even a hat with a feather.
+Jacks and Glaives make the best swashbucklers, and they are the most common types of characters to fight with panache.</t>
+  </si>
+  <si>
+    <t>You believe that the finest machine ever created is the human brain, and experience and training have taught you that any machine can be improved. Through the use of implants and mechanical enhancements, your brain processes input faster, stores more information, and eventually can tap right into the datasphere. Mentally, you function on an entirely different level than your fellows. Did you make these improvements yourself? Did someone else? Was it with your blessing or against your will? Regardless, you are now more than just a person. You are both living creature and machine. But unlike someone who Augments Flesh With Grafts, all of your refinements and upgrades are on the inside. You don’t need mech eyes or metal arms to be enhanced. It’s all about what’s inside your skull.
+Nanos are most often those who fuse their mind with machines, but Arkai and Wrights are almost as likely to do so.</t>
+  </si>
+  <si>
+    <t>Sometimes the numenera is a double-edged sword. You are cursed and blessed to be able to transform into a powerful creature, drawing additional mass from a transdimensional source. You and the GM should work out the exact nature of the creature, including its appearance, but it’s a wild beast of rage and blood—at least until you learn to control it. Creatures like you are often called “lycanthropes.” Although the people of the Ninth World look upon a creature that transforms into another creature as mystical lycanthropy, it instead almost certainly involves accessing other dimensions of reality.
+A character either draws mass from an extradimensional space (perhaps somehow warping higherdimensional mass into our lower dimensions) or switches places with a larger, more savage ultraterrestrial creature for a time. In this latter case, the character and the creature have a bond that allows them to share general intentions. The character, while shunted to another dimension, likely remains in stasis, unaware of anything until returning to the normal world.
+Style and appearance are probably low on your list of concerns. Your clothes might be ragged because your transformation is hard on them (or they’re cheap because you know they’ll be destroyed the next time you transform).
+Anyone can be a lycanthrope. A Glaive likely benefits the most from the transformation.</t>
+  </si>
+  <si>
+    <t>Using charisma, natural leadership, and perhaps some training, you command the actions of others, who follow you willingly. You are a commander, a captain, a leader, or a general. Your skills allow you to make people do what you want, but you also have the wisdom to know what actions would be best for your followers and allies. 
+Since you need the respect of others, you probably dress and carry yourself in such a way that inspires, endears, or intimidates. You have a voice suited to barking orders that can be heard even on a noisy battlefield.
+Arkai are already leaders, so only a few will choose to further enhance their expertise. Glaives make excellent military leaders, but a Jack could easily lead a group of explorers or a den of thieves. A Nano might be the head of a group of “mages” or scholars, or they might have a gang of bodyguards as followers.</t>
+  </si>
+  <si>
+    <t>Protecting yourself is obviously important in dangerous situations, and you are particularly good at it. Cautious and prudent, you learn techniques to defend against all kinds of attacks, both physical and mental. The winner is often the last person standing, and you’ve done all you can to ensure that person will be you. You carry a shield and probably wear the best armor you can find.
+Glaives make excellent defensive masters, but Jacks and Nanos also find at least some of these skills of great value.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3217,13 +3188,13 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
@@ -3240,7 +3211,7 @@
     <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="180">
+    <row r="2" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3286,2199 +3257,2199 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="225">
+    </row>
+    <row r="3" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="270">
+    </row>
+    <row r="4" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="285">
+    </row>
+    <row r="5" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="210">
+    </row>
+    <row r="6" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="225">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="165">
+    </row>
+    <row r="8" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="270">
+    </row>
+    <row r="9" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="255">
+    </row>
+    <row r="10" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="195">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="225">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="285">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="240">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="210">
+    </row>
+    <row r="15" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="210">
+    </row>
+    <row r="16" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="240">
+    </row>
+    <row r="17" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="375">
+    </row>
+    <row r="18" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="345">
+    </row>
+    <row r="19" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="240">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="195">
-      <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="285">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="225">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="195">
+    </row>
+    <row r="24" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="195">
+    </row>
+    <row r="25" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="225">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="255">
-      <c r="A27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="210">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="225">
+    <row r="29" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="330">
-      <c r="A30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="165">
-      <c r="A31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="180">
+    </row>
+    <row r="32" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="210">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="315">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>360</v>
+        <v>641</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="240">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J35" s="1" t="s">
+    </row>
+    <row r="37" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="210">
-      <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="150">
-      <c r="A37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="210">
-      <c r="A38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="225">
+    </row>
+    <row r="39" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="165">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="195">
-      <c r="A41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="255">
+    </row>
+    <row r="42" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="180">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="375">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="315">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H45" s="1" t="s">
+    </row>
+    <row r="47" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="165">
-      <c r="A46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="240">
-      <c r="A47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="270">
+    </row>
+    <row r="48" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="180">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="300">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="I50" s="1" t="s">
+    </row>
+    <row r="52" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="240">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="210">
-      <c r="A52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="345">
+    </row>
+    <row r="53" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="285">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="I54" s="1" t="s">
+    </row>
+    <row r="56" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="210">
-      <c r="A55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I55" s="1" t="s">
+    </row>
+    <row r="57" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="180">
-      <c r="A56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="180">
-      <c r="A57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="270">
+    </row>
+    <row r="58" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="H58" s="1" t="s">
+    </row>
+    <row r="60" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="180">
-      <c r="A59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="210">
-      <c r="A60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L60">
+  <sortState ref="A2:L60">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
